--- a/A & D Deliverables/User Stories.xlsx
+++ b/A & D Deliverables/User Stories.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460"/>
   </bookViews>
   <sheets>
     <sheet name="List" sheetId="1" r:id="rId1"/>
@@ -33,10 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="19">
-  <si>
-    <t>Note</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
   <si>
     <t>USER STORIES</t>
   </si>
@@ -44,9 +41,6 @@
     <t>ASSIGNED TO</t>
   </si>
   <si>
-    <t>DESCRIPTION</t>
-  </si>
-  <si>
     <t>Jeff S</t>
   </si>
   <si>
@@ -90,6 +84,9 @@
   </si>
   <si>
     <t>Build web pages</t>
+  </si>
+  <si>
+    <t>Points</t>
   </si>
 </sst>
 </file>
@@ -175,7 +172,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -196,6 +193,12 @@
     </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="5" applyFill="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -206,7 +209,10 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="4">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -244,9 +250,9 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="Tasks" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Tasks" pivot="0" count="3">
-      <tableStyleElement type="wholeTable" dxfId="2"/>
-      <tableStyleElement type="headerRow" dxfId="1"/>
-      <tableStyleElement type="firstColumn" dxfId="0"/>
+      <tableStyleElement type="wholeTable" dxfId="3"/>
+      <tableStyleElement type="headerRow" dxfId="2"/>
+      <tableStyleElement type="firstColumn" dxfId="1"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -266,7 +272,7 @@
   <tableColumns count="3">
     <tableColumn id="1" name="TASK" dataCellStyle="Date"/>
     <tableColumn id="2" name="ASSIGNED TO"/>
-    <tableColumn id="3" name="DESCRIPTION"/>
+    <tableColumn id="3" name="Points" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="Tasks" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -547,7 +553,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -555,14 +561,14 @@
     <col min="1" max="1" width="2.6640625" customWidth="1"/>
     <col min="2" max="2" width="24.83203125" customWidth="1"/>
     <col min="3" max="3" width="45.6640625" customWidth="1"/>
-    <col min="4" max="4" width="40.6640625" customWidth="1"/>
+    <col min="4" max="4" width="40.6640625" style="7" customWidth="1"/>
     <col min="5" max="5" width="2.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="5"/>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="24" x14ac:dyDescent="0.15">
@@ -570,113 +576,134 @@
     </row>
     <row r="3" spans="1:4" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="D4" s="8">
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="D5" s="8">
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="D6" s="8">
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="D7" s="8">
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>9</v>
+      </c>
+      <c r="D8" s="7">
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="D9" s="7">
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
         <v>13</v>
       </c>
-      <c r="C10" t="s">
-        <v>15</v>
+      <c r="D10" s="7">
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>12</v>
+      </c>
+      <c r="D11" s="7">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
+        <v>16</v>
+      </c>
+      <c r="D12" s="7">
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="D13" s="7">
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>17</v>
+        <v>15</v>
+      </c>
+      <c r="D14" s="7">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
